--- a/biology/Zoologie/Hiodontiformes/Hiodontiformes.xlsx
+++ b/biology/Zoologie/Hiodontiformes/Hiodontiformes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hiodontiformes sont un ordre de poissons qui est essentiellement représenté par des espèces éteintes. Il n'est pas reconnu par l’ITIS et FishBase qui placent les deux espèces non éteintes sous l'ordre des Osteoglossiformes et la famille des Hiodontidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon tolweb.org:
 genre Plesiolycoptera (éteint)
